--- a/runs/run835/NotionalETEOutput835.xlsx
+++ b/runs/run835/NotionalETEOutput835.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND0_State_Update</t>
+    <t>Missile_HELLMASKER3_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND0_191.MISSILE_HIGHWIND0_191</t>
+    <t>MISSILE_HELLMASKER3_142.MISSILE_HELLMASKER3_142</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND0</t>
+    <t>MISSILE_HELLMASKER3</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1542.042781062181</v>
+        <v>-1540.225806433475</v>
       </c>
       <c r="J2">
-        <v>2038.876190843904</v>
+        <v>2034.663214462659</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1503.84752494791</v>
+        <v>-1408.311685250688</v>
       </c>
       <c r="J3">
-        <v>1861.894688865947</v>
+        <v>1865.339127564067</v>
       </c>
       <c r="K3">
-        <v>317.9093475346759</v>
+        <v>311.0886895269301</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1483.954304547435</v>
+        <v>-1404.138354519158</v>
       </c>
       <c r="J4">
-        <v>1951.157485451259</v>
+        <v>1883.460691869792</v>
       </c>
       <c r="K4">
-        <v>582.5999004777856</v>
+        <v>594.8882925685674</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1339.090504723081</v>
+        <v>-1410.405850421283</v>
       </c>
       <c r="J5">
-        <v>1762.706334821785</v>
+        <v>1769.447777942436</v>
       </c>
       <c r="K5">
-        <v>880.2461449457006</v>
+        <v>832.4501018731962</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1439.731497164605</v>
+        <v>-1364.271959084783</v>
       </c>
       <c r="J6">
-        <v>1780.807569953548</v>
+        <v>1791.907966914956</v>
       </c>
       <c r="K6">
-        <v>1078.566975031957</v>
+        <v>1141.606939001635</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1322.572852072964</v>
+        <v>-1288.593255317418</v>
       </c>
       <c r="J7">
-        <v>1719.146198715326</v>
+        <v>1697.675889755417</v>
       </c>
       <c r="K7">
-        <v>1399.613741315476</v>
+        <v>1422.850487952843</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1350.122243121753</v>
+        <v>-1281.372863681904</v>
       </c>
       <c r="J8">
-        <v>1652.217628972003</v>
+        <v>1662.542445166636</v>
       </c>
       <c r="K8">
-        <v>1661.764147276807</v>
+        <v>1542.225560417623</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-102.2712225020143</v>
+        <v>-100.2815324062193</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1308.14815972122</v>
+        <v>-1293.79564854431</v>
       </c>
       <c r="J9">
-        <v>1698.879871890085</v>
+        <v>1658.708596698182</v>
       </c>
       <c r="K9">
-        <v>1882.54469867328</v>
+        <v>1883.364081590456</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>209.6401322009073</v>
+        <v>227.0874122187907</v>
       </c>
       <c r="G10">
-        <v>-86.14948330845749</v>
+        <v>-84.2843479536841</v>
       </c>
       <c r="H10">
-        <v>887.3685491704568</v>
+        <v>866.3451077380581</v>
       </c>
       <c r="I10">
-        <v>-1215.571178453457</v>
+        <v>-1185.794960286205</v>
       </c>
       <c r="J10">
-        <v>1650.520567817504</v>
+        <v>1643.195763047351</v>
       </c>
       <c r="K10">
-        <v>1906.598742521361</v>
+        <v>1990.482607314655</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>169.3099679631654</v>
+        <v>164.2171533781952</v>
       </c>
       <c r="G11">
-        <v>-69.38398019083039</v>
+        <v>-65.82474703338147</v>
       </c>
       <c r="H11">
-        <v>1030.537355348434</v>
+        <v>1058.393603211848</v>
       </c>
       <c r="I11">
-        <v>-1242.21041289609</v>
+        <v>-1181.883120705554</v>
       </c>
       <c r="J11">
-        <v>1520.470732101067</v>
+        <v>1585.334236543634</v>
       </c>
       <c r="K11">
-        <v>2203.1394391319</v>
+        <v>2215.219021595882</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>137.6128680746988</v>
+        <v>137.6488924549569</v>
       </c>
       <c r="G12">
-        <v>-48.76191580332712</v>
+        <v>-52.2802689352165</v>
       </c>
       <c r="H12">
-        <v>1119.462234828571</v>
+        <v>1193.31475903946</v>
       </c>
       <c r="I12">
-        <v>-1129.973439723361</v>
+        <v>-1165.027137855818</v>
       </c>
       <c r="J12">
-        <v>1509.039433531369</v>
+        <v>1438.999258842435</v>
       </c>
       <c r="K12">
-        <v>2351.721426075613</v>
+        <v>2426.497552779319</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>122.9481019616276</v>
+        <v>116.519796772345</v>
       </c>
       <c r="G13">
-        <v>-35.38316157590518</v>
+        <v>-34.48640659967712</v>
       </c>
       <c r="H13">
-        <v>1266.200422062194</v>
+        <v>1299.692633735993</v>
       </c>
       <c r="I13">
-        <v>-1185.115276989203</v>
+        <v>-1156.06299821244</v>
       </c>
       <c r="J13">
-        <v>1441.926055294999</v>
+        <v>1403.268143216831</v>
       </c>
       <c r="K13">
-        <v>2509.914124164076</v>
+        <v>2467.164203589805</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>111.306224630696</v>
+        <v>106.1330829234765</v>
       </c>
       <c r="G14">
-        <v>-18.30729591525572</v>
+        <v>-17.80478001649675</v>
       </c>
       <c r="H14">
-        <v>1358.160151515805</v>
+        <v>1295.319295900217</v>
       </c>
       <c r="I14">
-        <v>-1043.85890888402</v>
+        <v>-1138.903416710504</v>
       </c>
       <c r="J14">
-        <v>1365.783459280448</v>
+        <v>1435.914639158606</v>
       </c>
       <c r="K14">
-        <v>2683.67255268339</v>
+        <v>2528.493885615785</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>98.39397917672875</v>
+        <v>95.55607866641151</v>
       </c>
       <c r="G15">
-        <v>-0.9419788990978586</v>
+        <v>-0.9238544020214613</v>
       </c>
       <c r="H15">
-        <v>1368.969178363206</v>
+        <v>1329.044345444903</v>
       </c>
       <c r="I15">
-        <v>-1081.156509250851</v>
+        <v>-1050.338360871427</v>
       </c>
       <c r="J15">
-        <v>1319.897950752364</v>
+        <v>1310.421148007119</v>
       </c>
       <c r="K15">
-        <v>2663.902254621904</v>
+        <v>2687.50434054582</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>91.99804378712358</v>
+        <v>90.71865976554679</v>
       </c>
       <c r="G16">
-        <v>15.97782530389124</v>
+        <v>15.7372293036004</v>
       </c>
       <c r="H16">
-        <v>1477.915861230996</v>
+        <v>1427.678261707676</v>
       </c>
       <c r="I16">
-        <v>-1057.007420887804</v>
+        <v>-1048.132035092269</v>
       </c>
       <c r="J16">
-        <v>1310.969015281096</v>
+        <v>1316.807879406251</v>
       </c>
       <c r="K16">
-        <v>2782.683475932769</v>
+        <v>2906.509000327088</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>82.93118663471361</v>
+        <v>86.77235673080365</v>
       </c>
       <c r="G17">
-        <v>31.62687617928981</v>
+        <v>32.63259364663447</v>
       </c>
       <c r="H17">
-        <v>1455.018949273899</v>
+        <v>1469.913530024834</v>
       </c>
       <c r="I17">
-        <v>-968.3765511625018</v>
+        <v>-980.4331039651604</v>
       </c>
       <c r="J17">
-        <v>1302.314974028112</v>
+        <v>1308.853289344512</v>
       </c>
       <c r="K17">
-        <v>3010.631776007305</v>
+        <v>2853.224320598714</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>78.17051668040192</v>
+        <v>83.35315321694897</v>
       </c>
       <c r="G18">
-        <v>47.15479709815286</v>
+        <v>47.93383581925204</v>
       </c>
       <c r="H18">
-        <v>1490.697385742459</v>
+        <v>1470.198918780193</v>
       </c>
       <c r="I18">
-        <v>-946.3376321377347</v>
+        <v>-928.6096836755896</v>
       </c>
       <c r="J18">
-        <v>1198.327726268588</v>
+        <v>1222.84821300783</v>
       </c>
       <c r="K18">
-        <v>3029.41382618095</v>
+        <v>3055.548024178077</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>78.1265768239261</v>
+        <v>73.89477551502071</v>
       </c>
       <c r="G19">
-        <v>64.59960070558274</v>
+        <v>65.40546186108753</v>
       </c>
       <c r="H19">
-        <v>1540.869524448988</v>
+        <v>1596.521826057487</v>
       </c>
       <c r="I19">
-        <v>-912.7792919874223</v>
+        <v>-927.9268441100523</v>
       </c>
       <c r="J19">
-        <v>1161.602709483925</v>
+        <v>1152.021774880326</v>
       </c>
       <c r="K19">
-        <v>2998.13307069021</v>
+        <v>3054.124099165752</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>77.78450388845798</v>
+        <v>77.2426960046642</v>
       </c>
       <c r="G20">
-        <v>77.85466804958985</v>
+        <v>78.68432148570501</v>
       </c>
       <c r="H20">
-        <v>1582.60862625545</v>
+        <v>1571.672659663562</v>
       </c>
       <c r="I20">
-        <v>-830.9106822791682</v>
+        <v>-841.0112617994149</v>
       </c>
       <c r="J20">
-        <v>1083.155491768102</v>
+        <v>1072.806272065985</v>
       </c>
       <c r="K20">
-        <v>3130.319603952571</v>
+        <v>3300.009000013185</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>69.44692247515974</v>
+        <v>69.07674205878718</v>
       </c>
       <c r="G21">
-        <v>101.8408599383069</v>
+        <v>99.6646745763281</v>
       </c>
       <c r="H21">
-        <v>1575.939824074032</v>
+        <v>1544.246939275386</v>
       </c>
       <c r="I21">
-        <v>-809.8824053732676</v>
+        <v>-821.6793154487755</v>
       </c>
       <c r="J21">
-        <v>1053.088718906141</v>
+        <v>1054.044748340392</v>
       </c>
       <c r="K21">
-        <v>3239.26997211498</v>
+        <v>3325.297887869647</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>68.00179883935765</v>
+        <v>71.42851661598978</v>
       </c>
       <c r="G22">
-        <v>116.6621747308951</v>
+        <v>112.1979787680298</v>
       </c>
       <c r="H22">
-        <v>1646.069427729792</v>
+        <v>1575.378841277688</v>
       </c>
       <c r="I22">
-        <v>-771.1243117225594</v>
+        <v>-781.3432641489064</v>
       </c>
       <c r="J22">
-        <v>997.244054808931</v>
+        <v>1026.07587215647</v>
       </c>
       <c r="K22">
-        <v>3283.062165745037</v>
+        <v>3131.293589331365</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>62.64018776470015</v>
+        <v>66.39928890169534</v>
       </c>
       <c r="G23">
-        <v>133.061832668828</v>
+        <v>130.1607872302017</v>
       </c>
       <c r="H23">
-        <v>1670.821459817132</v>
+        <v>1672.499802982316</v>
       </c>
       <c r="I23">
-        <v>-713.1028546658687</v>
+        <v>-710.5895402412606</v>
       </c>
       <c r="J23">
-        <v>998.8788687554073</v>
+        <v>1004.718084788165</v>
       </c>
       <c r="K23">
-        <v>3352.43553948271</v>
+        <v>3100.530464491083</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>66.44507270399322</v>
+        <v>63.71828994027802</v>
       </c>
       <c r="G24">
-        <v>152.9215263312595</v>
+        <v>150.3904313015602</v>
       </c>
       <c r="H24">
-        <v>1649.802303186989</v>
+        <v>1669.813432710559</v>
       </c>
       <c r="I24">
-        <v>-678.8190819250536</v>
+        <v>-628.5832045744361</v>
       </c>
       <c r="J24">
-        <v>904.0944178060129</v>
+        <v>893.193986035589</v>
       </c>
       <c r="K24">
-        <v>3228.070953116766</v>
+        <v>3079.715098214297</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>59.82602770812587</v>
+        <v>59.85890937929755</v>
       </c>
       <c r="G25">
-        <v>165.8110230814499</v>
+        <v>157.5534673923606</v>
       </c>
       <c r="H25">
-        <v>1681.250316104241</v>
+        <v>1665.498689096157</v>
       </c>
       <c r="I25">
-        <v>-604.4783726218515</v>
+        <v>-591.4833824051407</v>
       </c>
       <c r="J25">
-        <v>868.9942963080575</v>
+        <v>906.7042627617911</v>
       </c>
       <c r="K25">
-        <v>3058.206424802093</v>
+        <v>3072.665385263757</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>60.24702198934343</v>
+        <v>58.54996101393645</v>
       </c>
       <c r="G26">
-        <v>175.9765812821755</v>
+        <v>189.6485602244491</v>
       </c>
       <c r="H26">
-        <v>1661.339344554898</v>
+        <v>1628.123815304792</v>
       </c>
       <c r="I26">
-        <v>-538.0312952386594</v>
+        <v>-521.9607493763656</v>
       </c>
       <c r="J26">
-        <v>870.7784289904017</v>
+        <v>811.9924327167851</v>
       </c>
       <c r="K26">
-        <v>3040.081055178878</v>
+        <v>3203.770156984974</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>58.77993495965039</v>
+        <v>57.64021796696266</v>
       </c>
       <c r="G27">
-        <v>203.1943454430732</v>
+        <v>199.6784851614943</v>
       </c>
       <c r="H27">
-        <v>1703.668168429438</v>
+        <v>1710.662059605373</v>
       </c>
       <c r="I27">
-        <v>-514.4325030617449</v>
+        <v>-490.2531775086026</v>
       </c>
       <c r="J27">
-        <v>777.0462464675142</v>
+        <v>780.3059486155969</v>
       </c>
       <c r="K27">
-        <v>3129.022953246311</v>
+        <v>3102.18865037429</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>57.43214002051624</v>
+        <v>54.84906652884565</v>
       </c>
       <c r="G28">
-        <v>211.8125923228502</v>
+        <v>208.2908381348319</v>
       </c>
       <c r="H28">
-        <v>1798.639285792266</v>
+        <v>1712.552605633711</v>
       </c>
       <c r="I28">
-        <v>-458.8837960986945</v>
+        <v>-458.4814364495007</v>
       </c>
       <c r="J28">
-        <v>732.2801209762747</v>
+        <v>729.473288142783</v>
       </c>
       <c r="K28">
-        <v>3054.437463015448</v>
+        <v>2950.058486337193</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>57.03213424990823</v>
+        <v>52.97148505113015</v>
       </c>
       <c r="G29">
-        <v>220.6499268379279</v>
+        <v>241.5195696032903</v>
       </c>
       <c r="H29">
-        <v>1748.302774128604</v>
+        <v>1823.926363673781</v>
       </c>
       <c r="I29">
-        <v>-364.6512054417973</v>
+        <v>-367.394171992869</v>
       </c>
       <c r="J29">
-        <v>698.7338534969407</v>
+        <v>686.0271541737385</v>
       </c>
       <c r="K29">
-        <v>3021.008487230752</v>
+        <v>2944.193725112816</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>53.77189503035233</v>
+        <v>53.07133136299433</v>
       </c>
       <c r="G30">
-        <v>256.5620777508911</v>
+        <v>237.5285545174116</v>
       </c>
       <c r="H30">
-        <v>1744.763015854572</v>
+        <v>1668.171469993976</v>
       </c>
       <c r="I30">
-        <v>-321.4045429057086</v>
+        <v>-341.0823969013118</v>
       </c>
       <c r="J30">
-        <v>615.0169702243116</v>
+        <v>658.4592554556672</v>
       </c>
       <c r="K30">
-        <v>2859.714782060178</v>
+        <v>2646.171567573611</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>50.55910251053442</v>
+        <v>52.71928170942343</v>
       </c>
       <c r="G31">
-        <v>255.054629839519</v>
+        <v>264.2079186228656</v>
       </c>
       <c r="H31">
-        <v>1799.291909609345</v>
+        <v>1851.645803756685</v>
       </c>
       <c r="I31">
-        <v>-264.4152883932755</v>
+        <v>-262.9038131360247</v>
       </c>
       <c r="J31">
-        <v>601.850545299454</v>
+        <v>568.153583902016</v>
       </c>
       <c r="K31">
-        <v>2770.183917024773</v>
+        <v>2658.018590035192</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>51.11552885323405</v>
+        <v>51.96351301017084</v>
       </c>
       <c r="G32">
-        <v>292.4022679329735</v>
+        <v>281.0525894623992</v>
       </c>
       <c r="H32">
-        <v>1837.760604094989</v>
+        <v>1746.836400832336</v>
       </c>
       <c r="I32">
-        <v>-209.4310917622886</v>
+        <v>-199.3153094663251</v>
       </c>
       <c r="J32">
-        <v>540.6477924086361</v>
+        <v>531.1542534041079</v>
       </c>
       <c r="K32">
-        <v>2406.174282115053</v>
+        <v>2525.995675576353</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>50.62563251619174</v>
+        <v>50.24973333138539</v>
       </c>
       <c r="G33">
-        <v>284.9786855168719</v>
+        <v>286.3887622846988</v>
       </c>
       <c r="H33">
-        <v>1787.028130020342</v>
+        <v>1741.921065625433</v>
       </c>
       <c r="I33">
-        <v>-141.7362896518234</v>
+        <v>-143.006905889753</v>
       </c>
       <c r="J33">
-        <v>495.0124435524498</v>
+        <v>476.6824289360566</v>
       </c>
       <c r="K33">
-        <v>2429.173392456496</v>
+        <v>2267.885371872662</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>47.93109042871424</v>
+        <v>51.54189931164095</v>
       </c>
       <c r="G34">
-        <v>299.7436395814888</v>
+        <v>317.8404299918412</v>
       </c>
       <c r="H34">
-        <v>1784.1590236458</v>
+        <v>1724.117639605149</v>
       </c>
       <c r="I34">
-        <v>-80.21058193816013</v>
+        <v>-86.01739619026283</v>
       </c>
       <c r="J34">
-        <v>445.4609444138266</v>
+        <v>464.2873637796006</v>
       </c>
       <c r="K34">
-        <v>2222.035848529457</v>
+        <v>2270.727402882458</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.73885840182321</v>
+        <v>48.49027749166598</v>
       </c>
       <c r="G35">
-        <v>328.3904098404886</v>
+        <v>320.0230455509686</v>
       </c>
       <c r="H35">
-        <v>1816.665023361209</v>
+        <v>1886.459069925073</v>
       </c>
       <c r="I35">
-        <v>-19.6449283984947</v>
+        <v>-19.06735760729724</v>
       </c>
       <c r="J35">
-        <v>375.9138225411323</v>
+        <v>402.538959438648</v>
       </c>
       <c r="K35">
-        <v>2124.715899343423</v>
+        <v>2052.260188758975</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>48.58157578121348</v>
+        <v>46.43915149223378</v>
       </c>
       <c r="G36">
-        <v>356.5223910263887</v>
+        <v>344.7836884897046</v>
       </c>
       <c r="H36">
-        <v>1741.431863929496</v>
+        <v>1739.313954478714</v>
       </c>
       <c r="I36">
-        <v>45.57406469788136</v>
+        <v>46.29884392625799</v>
       </c>
       <c r="J36">
-        <v>360.5712947268954</v>
+        <v>359.7650524138074</v>
       </c>
       <c r="K36">
-        <v>1753.443637187616</v>
+        <v>1812.934977795778</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>47.85839277409156</v>
+        <v>48.39887663221435</v>
       </c>
       <c r="G37">
-        <v>344.272084150686</v>
+        <v>348.7329345264974</v>
       </c>
       <c r="H37">
-        <v>1908.594870315643</v>
+        <v>1911.685725151891</v>
       </c>
       <c r="I37">
-        <v>115.9292653548557</v>
+        <v>112.596593139303</v>
       </c>
       <c r="J37">
-        <v>296.8688780960051</v>
+        <v>295.2152615315163</v>
       </c>
       <c r="K37">
-        <v>1680.339142501138</v>
+        <v>1551.731307687479</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>47.60807199446948</v>
+        <v>43.99309149329556</v>
       </c>
       <c r="G38">
-        <v>382.19878825877</v>
+        <v>360.765931125484</v>
       </c>
       <c r="H38">
-        <v>1941.429705545169</v>
+        <v>1813.829784617202</v>
       </c>
       <c r="I38">
-        <v>189.8884403515335</v>
+        <v>185.3672680137019</v>
       </c>
       <c r="J38">
-        <v>247.7948925748034</v>
+        <v>248.6689379899499</v>
       </c>
       <c r="K38">
-        <v>1392.389659666963</v>
+        <v>1343.714000965905</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>43.24155329447564</v>
+        <v>46.69479379486528</v>
       </c>
       <c r="G39">
-        <v>403.5847451378252</v>
+        <v>380.0483412315076</v>
       </c>
       <c r="H39">
-        <v>1951.375575201117</v>
+        <v>1845.288572758402</v>
       </c>
       <c r="I39">
-        <v>261.1205281159673</v>
+        <v>242.7960487796707</v>
       </c>
       <c r="J39">
-        <v>203.9635482302094</v>
+        <v>192.467239671069</v>
       </c>
       <c r="K39">
-        <v>1189.69690870053</v>
+        <v>1183.839819583869</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>46.26281093173701</v>
+        <v>44.70593647348291</v>
       </c>
       <c r="G40">
-        <v>424.2523096207014</v>
+        <v>404.7384303152991</v>
       </c>
       <c r="H40">
-        <v>1874.078688301359</v>
+        <v>1962.123107939927</v>
       </c>
       <c r="I40">
-        <v>313.7475769399065</v>
+        <v>321.7729861257742</v>
       </c>
       <c r="J40">
-        <v>146.9818072061334</v>
+        <v>152.0551660086656</v>
       </c>
       <c r="K40">
-        <v>899.7953506526535</v>
+        <v>936.6926673171375</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>43.27929181038262</v>
+        <v>43.27135592855842</v>
       </c>
       <c r="G41">
-        <v>414.2825393841834</v>
+        <v>431.1526821040486</v>
       </c>
       <c r="H41">
-        <v>1916.201000952726</v>
+        <v>1959.208450977903</v>
       </c>
       <c r="I41">
-        <v>383.0989116650096</v>
+        <v>401.3582994349836</v>
       </c>
       <c r="J41">
-        <v>98.10534451940924</v>
+        <v>103.1608707602237</v>
       </c>
       <c r="K41">
-        <v>643.4728437654367</v>
+        <v>608.9287991148833</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.86066681785181</v>
+        <v>44.17228357143613</v>
       </c>
       <c r="G42">
-        <v>446.2847407558872</v>
+        <v>447.4884632799678</v>
       </c>
       <c r="H42">
-        <v>1917.948233076602</v>
+        <v>1891.166519408523</v>
       </c>
       <c r="I42">
-        <v>463.4629454330477</v>
+        <v>485.8129635039179</v>
       </c>
       <c r="J42">
-        <v>52.87274935942182</v>
+        <v>52.92946994886967</v>
       </c>
       <c r="K42">
-        <v>334.6472320652662</v>
+        <v>327.3116695391986</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>44.30205945603706</v>
+        <v>42.13848245628012</v>
       </c>
       <c r="G43">
-        <v>470.1235826535552</v>
+        <v>463.1947667874898</v>
       </c>
       <c r="H43">
-        <v>1958.462825564905</v>
+        <v>1876.606933047703</v>
       </c>
       <c r="I43">
-        <v>556.4554320708451</v>
+        <v>538.5356669343631</v>
       </c>
       <c r="J43">
-        <v>5.163367629224182</v>
+        <v>5.219320800689529</v>
       </c>
       <c r="K43">
-        <v>33.32221615670934</v>
+        <v>33.55599415981797</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>43.31687029362597</v>
+        <v>43.29180815844131</v>
       </c>
       <c r="G44">
-        <v>463.7461829593503</v>
+        <v>456.0701112267133</v>
       </c>
       <c r="H44">
-        <v>1852.421808849489</v>
+        <v>1819.915622015923</v>
       </c>
       <c r="I44">
-        <v>614.4507783047785</v>
+        <v>640.8910855254994</v>
       </c>
       <c r="J44">
-        <v>-44.87035411900064</v>
+        <v>-43.49991398827711</v>
       </c>
       <c r="K44">
-        <v>-282.0562352552589</v>
+        <v>-293.0153377945573</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.34045558842944</v>
+        <v>41.04131596446855</v>
       </c>
       <c r="G45">
-        <v>503.1457397482048</v>
+        <v>513.4327818281174</v>
       </c>
       <c r="H45">
-        <v>1901.719364593544</v>
+        <v>1838.491344672823</v>
       </c>
       <c r="I45">
-        <v>743.1967760810227</v>
+        <v>724.507293915313</v>
       </c>
       <c r="J45">
-        <v>-95.99031380084631</v>
+        <v>-93.0490720420387</v>
       </c>
       <c r="K45">
-        <v>-596.5670012996976</v>
+        <v>-597.7516594465959</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.62877404384405</v>
+        <v>40.51147330466165</v>
       </c>
       <c r="G46">
-        <v>532.9218531777827</v>
+        <v>490.6274612795028</v>
       </c>
       <c r="H46">
-        <v>1953.858724262581</v>
+        <v>1840.9268922964</v>
       </c>
       <c r="I46">
-        <v>821.8213662410631</v>
+        <v>777.5478614298079</v>
       </c>
       <c r="J46">
-        <v>-141.0690221213199</v>
+        <v>-145.9715103297947</v>
       </c>
       <c r="K46">
-        <v>-956.9174890828203</v>
+        <v>-987.4287660032797</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.95808803066633</v>
+        <v>39.47739189743966</v>
       </c>
       <c r="G47">
-        <v>504.2615487457204</v>
+        <v>541.2517639580136</v>
       </c>
       <c r="H47">
-        <v>1896.126756456786</v>
+        <v>1988.35806753976</v>
       </c>
       <c r="I47">
-        <v>904.9777439234866</v>
+        <v>915.3459740171811</v>
       </c>
       <c r="J47">
-        <v>-181.8616050023926</v>
+        <v>-185.4394791439397</v>
       </c>
       <c r="K47">
-        <v>-1295.03971766629</v>
+        <v>-1380.655711838578</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>37.89142206198446</v>
+        <v>37.97079062808503</v>
       </c>
       <c r="G48">
-        <v>525.1143369849956</v>
+        <v>518.6438570040248</v>
       </c>
       <c r="H48">
-        <v>1846.206712825156</v>
+        <v>1963.017811982463</v>
       </c>
       <c r="I48">
-        <v>963.0520483330091</v>
+        <v>950.1064214721098</v>
       </c>
       <c r="J48">
-        <v>-230.9096769687709</v>
+        <v>-238.8253851427295</v>
       </c>
       <c r="K48">
-        <v>-1698.064090151648</v>
+        <v>-1635.432881052123</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.7545198651621</v>
+        <v>40.64084392027272</v>
       </c>
       <c r="G49">
-        <v>546.7120636240397</v>
+        <v>546.5375600998927</v>
       </c>
       <c r="H49">
-        <v>2042.599543358385</v>
+        <v>2001.663074838703</v>
       </c>
       <c r="I49">
-        <v>1101.08934552401</v>
+        <v>1116.950067194959</v>
       </c>
       <c r="J49">
-        <v>-280.5689085466428</v>
+        <v>-294.0376070347904</v>
       </c>
       <c r="K49">
-        <v>-2048.378814733691</v>
+        <v>-2002.147377148659</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.14859164059042</v>
+        <v>37.1370674154367</v>
       </c>
       <c r="G50">
-        <v>581.317591737006</v>
+        <v>550.9832384363805</v>
       </c>
       <c r="H50">
-        <v>1983.795321208563</v>
+        <v>1948.882489750124</v>
       </c>
       <c r="I50">
-        <v>1182.871593247012</v>
+        <v>1197.360770102771</v>
       </c>
       <c r="J50">
-        <v>-321.3856982123129</v>
+        <v>-328.0623700743154</v>
       </c>
       <c r="K50">
-        <v>-2549.326254933314</v>
+        <v>-2474.807401972464</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.13364527656456</v>
+        <v>39.84881610347339</v>
       </c>
       <c r="G51">
-        <v>615.0137765722206</v>
+        <v>613.6161162045436</v>
       </c>
       <c r="H51">
-        <v>2059.116160823742</v>
+        <v>1900.820266860898</v>
       </c>
       <c r="I51">
-        <v>1311.629762117756</v>
+        <v>1270.572457051157</v>
       </c>
       <c r="J51">
-        <v>-383.7907706467821</v>
+        <v>-379.7725367440182</v>
       </c>
       <c r="K51">
-        <v>-3014.898712043966</v>
+        <v>-2972.495745668802</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.65673061484863</v>
+        <v>38.53980761715251</v>
       </c>
       <c r="G52">
-        <v>608.1533928453715</v>
+        <v>614.9523690873829</v>
       </c>
       <c r="H52">
-        <v>2067.918281074897</v>
+        <v>2055.113032834516</v>
       </c>
       <c r="I52">
-        <v>1317.844818114856</v>
+        <v>1328.666776751816</v>
       </c>
       <c r="J52">
-        <v>-423.4532039778493</v>
+        <v>-418.1908055425503</v>
       </c>
       <c r="K52">
-        <v>-3327.612011169569</v>
+        <v>-3233.796825501995</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>38.3478446699607</v>
+        <v>35.58473394937005</v>
       </c>
       <c r="G53">
-        <v>649.6906221158247</v>
+        <v>603.0239778576841</v>
       </c>
       <c r="H53">
-        <v>2075.642840179121</v>
+        <v>1993.50898586275</v>
       </c>
       <c r="I53">
-        <v>1514.554519508201</v>
+        <v>1490.791406123327</v>
       </c>
       <c r="J53">
-        <v>-478.5919858887456</v>
+        <v>-486.5462980942318</v>
       </c>
       <c r="K53">
-        <v>-3931.109531291881</v>
+        <v>-3932.282511612468</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>38.30446536044076</v>
+        <v>35.02213276959236</v>
       </c>
       <c r="G54">
-        <v>618.6650041789391</v>
+        <v>625.99799868636</v>
       </c>
       <c r="H54">
-        <v>1916.617381629182</v>
+        <v>2015.957298209815</v>
       </c>
       <c r="I54">
-        <v>1628.091645224433</v>
+        <v>1512.814406935399</v>
       </c>
       <c r="J54">
-        <v>-535.0741579524241</v>
+        <v>-516.1911595496224</v>
       </c>
       <c r="K54">
-        <v>-4102.34377568937</v>
+        <v>-4141.276621409506</v>
       </c>
     </row>
   </sheetData>
